--- a/materials/reading-ranger/stimuli/passage-error-excels/set-11b/cars_11g.xlsx
+++ b/materials/reading-ranger/stimuli/passage-error-excels/set-11b/cars_11g.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="339">
   <si>
     <t xml:space="preserve">Cars</t>
   </si>
@@ -1702,7 +1702,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:YO1003"/>
+  <dimension ref="A1:YQ1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1990,481 +1990,481 @@
       <c r="DY1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="DZ1" s="3" t="s">
+      <c r="DZ1" s="3"/>
+      <c r="EA1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="EA1" s="3"/>
       <c r="EB1" s="3"/>
       <c r="EC1" s="3"/>
       <c r="ED1" s="3"/>
-      <c r="EE1" s="3" t="s">
+      <c r="EE1" s="3"/>
+      <c r="EF1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="EF1" s="3"/>
-      <c r="EG1" s="3" t="s">
+      <c r="EG1" s="3"/>
+      <c r="EH1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="EH1" s="3"/>
       <c r="EI1" s="3"/>
-      <c r="EJ1" s="3" t="s">
+      <c r="EJ1" s="3"/>
+      <c r="EK1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EL1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="EL1" s="3"/>
-      <c r="EM1" s="3" t="s">
+      <c r="EM1" s="3"/>
+      <c r="EN1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="EN1" s="3"/>
       <c r="EO1" s="3"/>
-      <c r="EP1" s="3" t="s">
+      <c r="EP1" s="3"/>
+      <c r="EQ1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="ER1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="ER1" s="4"/>
       <c r="ES1" s="4"/>
-      <c r="ET1" s="3" t="s">
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="EU1" s="3"/>
-      <c r="EV1" s="3" t="s">
+      <c r="EV1" s="3"/>
+      <c r="EW1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="EW1" s="3"/>
-      <c r="EX1" s="3" t="s">
+      <c r="EX1" s="3"/>
+      <c r="EY1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="EY1" s="3"/>
-      <c r="EZ1" s="3" t="s">
+      <c r="EZ1" s="3"/>
+      <c r="FA1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="FA1" s="3"/>
-      <c r="FB1" s="3" t="s">
+      <c r="FB1" s="3"/>
+      <c r="FC1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="FC1" s="3"/>
-      <c r="FD1" s="3" t="s">
+      <c r="FD1" s="3"/>
+      <c r="FE1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="FE1" s="3"/>
-      <c r="FF1" s="5" t="s">
+      <c r="FF1" s="3"/>
+      <c r="FG1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="FG1" s="3" t="s">
+      <c r="FH1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="FH1" s="3" t="s">
+      <c r="FI1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="FI1" s="3"/>
       <c r="FJ1" s="3"/>
       <c r="FK1" s="3"/>
-      <c r="FL1" s="4" t="s">
+      <c r="FL1" s="3"/>
+      <c r="FM1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="FM1" s="4"/>
-      <c r="FN1" s="3" t="s">
+      <c r="FN1" s="4"/>
+      <c r="FO1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="FO1" s="5" t="s">
+      <c r="FP1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="FP1" s="5"/>
-      <c r="FQ1" s="3" t="s">
+      <c r="FQ1" s="5"/>
+      <c r="FR1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="FR1" s="3"/>
-      <c r="FS1" s="3" t="s">
+      <c r="FS1" s="3"/>
+      <c r="FT1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="FT1" s="5" t="s">
+      <c r="FU1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="FU1" s="3" t="s">
+      <c r="FV1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="FV1" s="3"/>
-      <c r="FW1" s="5" t="s">
+      <c r="FW1" s="3"/>
+      <c r="FX1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="FX1" s="3" t="s">
+      <c r="FY1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="FY1" s="3" t="s">
+      <c r="FZ1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="FZ1" s="3"/>
-      <c r="GA1" s="3" t="s">
+      <c r="GA1" s="3"/>
+      <c r="GB1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="GB1" s="3" t="s">
+      <c r="GC1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="GC1" s="3"/>
-      <c r="GD1" s="3" t="s">
+      <c r="GD1" s="3"/>
+      <c r="GE1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="GE1" s="4" t="s">
+      <c r="GF1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="GF1" s="4"/>
       <c r="GG1" s="4"/>
       <c r="GH1" s="4"/>
-      <c r="GI1" s="3" t="s">
+      <c r="GI1" s="4"/>
+      <c r="GJ1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="GJ1" s="3"/>
       <c r="GK1" s="3"/>
-      <c r="GL1" s="3" t="s">
+      <c r="GL1" s="3"/>
+      <c r="GM1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="GM1" s="3"/>
       <c r="GN1" s="3"/>
-      <c r="GO1" s="3" t="s">
+      <c r="GO1" s="3"/>
+      <c r="GP1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="GP1" s="3" t="s">
+      <c r="GQ1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="GQ1" s="3" t="s">
+      <c r="GR1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="GR1" s="3"/>
       <c r="GS1" s="3"/>
-      <c r="GT1" s="3" t="s">
+      <c r="GT1" s="3"/>
+      <c r="GU1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="GU1" s="3"/>
       <c r="GV1" s="3"/>
-      <c r="GW1" s="3" t="s">
+      <c r="GW1" s="3"/>
+      <c r="GX1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="GX1" s="3" t="s">
+      <c r="GY1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="GY1" s="5" t="s">
+      <c r="GZ1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="GZ1" s="3" t="s">
+      <c r="HA1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="HA1" s="3" t="s">
+      <c r="HB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="HB1" s="7" t="s">
+      <c r="HC1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="HC1" s="3" t="s">
+      <c r="HD1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="HD1" s="3"/>
-      <c r="HE1" s="5" t="s">
+      <c r="HE1" s="3"/>
+      <c r="HF1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="HF1" s="5" t="s">
+      <c r="HG1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="HG1" s="3" t="s">
+      <c r="HH1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="HH1" s="3"/>
-      <c r="HI1" s="3" t="s">
+      <c r="HI1" s="3"/>
+      <c r="HJ1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="HJ1" s="3" t="s">
+      <c r="HK1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="HK1" s="3" t="s">
+      <c r="HL1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="HL1" s="3" t="s">
+      <c r="HM1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="HM1" s="3"/>
-      <c r="HN1" s="3" t="s">
+      <c r="HN1" s="3"/>
+      <c r="HO1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="HO1" s="3" t="s">
+      <c r="HP1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="HP1" s="3"/>
-      <c r="HQ1" s="3" t="s">
+      <c r="HQ1" s="3"/>
+      <c r="HR1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="HR1" s="3" t="s">
+      <c r="HS1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="HS1" s="3"/>
-      <c r="HT1" s="5" t="s">
+      <c r="HT1" s="3"/>
+      <c r="HU1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="HU1" s="3" t="s">
+      <c r="HV1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="HV1" s="4" t="s">
+      <c r="HW1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="HW1" s="4"/>
       <c r="HX1" s="4"/>
-      <c r="HY1" s="3" t="s">
+      <c r="HY1" s="4"/>
+      <c r="HZ1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="HZ1" s="3" t="s">
+      <c r="IA1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="IA1" s="3"/>
-      <c r="IB1" s="3" t="s">
+      <c r="IB1" s="3"/>
+      <c r="IC1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="IC1" s="3"/>
       <c r="ID1" s="3"/>
-      <c r="IE1" s="3" t="s">
+      <c r="IE1" s="3"/>
+      <c r="IF1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="IF1" s="3" t="s">
+      <c r="IG1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="IG1" s="3" t="s">
+      <c r="IH1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="IH1" s="3"/>
       <c r="II1" s="3"/>
       <c r="IJ1" s="3"/>
-      <c r="IK1" s="3" t="s">
+      <c r="IK1" s="3"/>
+      <c r="IL1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="IL1" s="3" t="s">
+      <c r="IM1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="IM1" s="3" t="s">
+      <c r="IN1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="IN1" s="3"/>
-      <c r="IO1" s="3" t="s">
+      <c r="IO1" s="3"/>
+      <c r="IP1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="IP1" s="3"/>
-      <c r="IQ1" s="3" t="s">
+      <c r="IQ1" s="3"/>
+      <c r="IR1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="IR1" s="4" t="s">
+      <c r="IS1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="IS1" s="4"/>
-      <c r="IT1" s="3" t="s">
+      <c r="IT1" s="4"/>
+      <c r="IU1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="IU1" s="3"/>
-      <c r="IV1" s="3" t="s">
+      <c r="IV1" s="3"/>
+      <c r="IW1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="IW1" s="3" t="s">
+      <c r="IX1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="IX1" s="3" t="s">
+      <c r="IY1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="IY1" s="3"/>
       <c r="IZ1" s="3"/>
-      <c r="JA1" s="3" t="s">
+      <c r="JA1" s="3"/>
+      <c r="JB1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="JB1" s="3"/>
-      <c r="JC1" s="3" t="s">
+      <c r="JC1" s="3"/>
+      <c r="JD1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="JD1" s="5" t="s">
+      <c r="JE1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="JE1" s="3" t="s">
+      <c r="JF1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="JF1" s="3"/>
-      <c r="JG1" s="3" t="s">
+      <c r="JG1" s="3"/>
+      <c r="JH1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="JH1" s="3"/>
       <c r="JI1" s="3"/>
-      <c r="JJ1" s="3" t="s">
+      <c r="JJ1" s="3"/>
+      <c r="JK1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="JK1" s="3" t="s">
+      <c r="JL1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="JL1" s="3" t="s">
+      <c r="JM1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="JM1" s="3" t="s">
+      <c r="JN1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="JN1" s="3" t="s">
+      <c r="JO1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="JO1" s="3"/>
-      <c r="JP1" s="4" t="s">
+      <c r="JP1" s="3"/>
+      <c r="JQ1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="JQ1" s="5" t="s">
+      <c r="JR1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="JR1" s="5" t="s">
+      <c r="JS1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="JS1" s="3" t="s">
+      <c r="JT1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="JT1" s="3" t="s">
+      <c r="JU1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="JU1" s="3" t="s">
+      <c r="JV1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="JV1" s="3"/>
-      <c r="JW1" s="3" t="s">
+      <c r="JW1" s="3"/>
+      <c r="JX1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="JX1" s="3"/>
       <c r="JY1" s="3"/>
-      <c r="JZ1" s="5" t="s">
+      <c r="JZ1" s="3"/>
+      <c r="KA1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="KA1" s="3" t="s">
+      <c r="KB1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="KB1" s="3"/>
-      <c r="KC1" s="5" t="s">
+      <c r="KC1" s="3"/>
+      <c r="KD1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="KD1" s="3" t="s">
+      <c r="KE1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="KE1" s="3"/>
       <c r="KF1" s="3"/>
-      <c r="KG1" s="3" t="s">
+      <c r="KG1" s="3"/>
+      <c r="KH1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="KH1" s="3"/>
-      <c r="KI1" s="3" t="s">
+      <c r="KI1" s="3"/>
+      <c r="KJ1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="KJ1" s="3" t="s">
+      <c r="KK1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="KK1" s="3"/>
-      <c r="KL1" s="4" t="s">
+      <c r="KL1" s="3"/>
+      <c r="KM1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="KM1" s="3" t="s">
+      <c r="KN1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="KN1" s="3"/>
-      <c r="KO1" s="3" t="s">
+      <c r="KO1" s="3"/>
+      <c r="KP1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="KP1" s="3"/>
       <c r="KQ1" s="3"/>
-      <c r="KR1" s="5" t="s">
+      <c r="KR1" s="3"/>
+      <c r="KS1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="KS1" s="3" t="s">
+      <c r="KT1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="KT1" s="3"/>
       <c r="KU1" s="3"/>
       <c r="KV1" s="3"/>
-      <c r="KW1" s="3" t="s">
+      <c r="KW1" s="3"/>
+      <c r="KX1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="KX1" s="3" t="s">
+      <c r="KY1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="KY1" s="3"/>
       <c r="KZ1" s="3"/>
-      <c r="LA1" s="3" t="s">
+      <c r="LA1" s="3"/>
+      <c r="LB1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="LB1" s="3" t="s">
+      <c r="LC1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="LC1" s="3"/>
-      <c r="LD1" s="3" t="s">
+      <c r="LD1" s="3"/>
+      <c r="LE1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="LE1" s="5" t="s">
+      <c r="LF1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="LF1" s="4" t="s">
+      <c r="LG1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="LG1" s="3" t="s">
+      <c r="LH1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="LH1" s="3"/>
       <c r="LI1" s="3"/>
-      <c r="LJ1" s="3" t="s">
+      <c r="LJ1" s="3"/>
+      <c r="LK1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="LK1" s="3" t="s">
+      <c r="LL1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="LL1" s="3"/>
       <c r="LM1" s="3"/>
-      <c r="LN1" s="5" t="s">
+      <c r="LN1" s="3"/>
+      <c r="LO1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="LO1" s="5" t="s">
+      <c r="LP1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="LP1" s="3" t="s">
+      <c r="LQ1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="LQ1" s="3" t="s">
+      <c r="LR1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="LR1" s="3" t="s">
+      <c r="LS1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="LS1" s="3"/>
-      <c r="LT1" s="3" t="s">
+      <c r="LT1" s="3"/>
+      <c r="LU1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="LU1" s="3" t="s">
+      <c r="LV1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="LV1" s="3"/>
       <c r="LW1" s="3"/>
       <c r="LX1" s="3"/>
       <c r="LY1" s="3"/>
-      <c r="LZ1" s="3" t="s">
+      <c r="LZ1" s="3"/>
+      <c r="MA1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="MA1" s="3" t="s">
+      <c r="MB1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="MB1" s="3" t="s">
+      <c r="MC1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="MC1" s="5" t="s">
+      <c r="MD1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="MD1" s="5"/>
-      <c r="ME1" s="3"/>
+      <c r="ME1" s="5"/>
       <c r="MF1" s="3"/>
       <c r="MG1" s="3"/>
       <c r="MH1" s="3"/>
       <c r="MI1" s="3"/>
       <c r="MJ1" s="3"/>
-      <c r="MK1" s="5"/>
+      <c r="MK1" s="3"/>
       <c r="ML1" s="5"/>
-      <c r="MM1" s="3"/>
+      <c r="MM1" s="5"/>
       <c r="MN1" s="3"/>
-      <c r="MO1" s="5"/>
+      <c r="MO1" s="3"/>
       <c r="MP1" s="5"/>
       <c r="MQ1" s="5"/>
-      <c r="MR1" s="3"/>
+      <c r="MR1" s="5"/>
       <c r="MS1" s="3"/>
       <c r="MT1" s="3"/>
       <c r="MU1" s="3"/>
@@ -2472,15 +2472,15 @@
       <c r="MW1" s="3"/>
       <c r="MX1" s="3"/>
       <c r="MY1" s="3"/>
-      <c r="MZ1" s="5"/>
-      <c r="NA1" s="3"/>
+      <c r="MZ1" s="3"/>
+      <c r="NA1" s="5"/>
       <c r="NB1" s="3"/>
       <c r="NC1" s="3"/>
       <c r="ND1" s="3"/>
       <c r="NE1" s="3"/>
-      <c r="NF1" s="5"/>
+      <c r="NF1" s="3"/>
       <c r="NG1" s="5"/>
-      <c r="NH1" s="3"/>
+      <c r="NH1" s="5"/>
       <c r="NI1" s="3"/>
       <c r="NJ1" s="3"/>
       <c r="NK1" s="3"/>
@@ -2491,110 +2491,110 @@
       <c r="NP1" s="3"/>
       <c r="NQ1" s="3"/>
       <c r="NR1" s="3"/>
-      <c r="NS1" s="5"/>
+      <c r="NS1" s="3"/>
       <c r="NT1" s="5"/>
       <c r="NU1" s="5"/>
       <c r="NV1" s="5"/>
-      <c r="NW1" s="3"/>
+      <c r="NW1" s="5"/>
       <c r="NX1" s="3"/>
       <c r="NY1" s="3"/>
       <c r="NZ1" s="3"/>
       <c r="OA1" s="3"/>
-      <c r="OB1" s="5"/>
+      <c r="OB1" s="3"/>
       <c r="OC1" s="5"/>
-      <c r="OD1" s="3"/>
+      <c r="OD1" s="5"/>
       <c r="OE1" s="3"/>
       <c r="OF1" s="3"/>
       <c r="OG1" s="3"/>
-      <c r="OH1" s="5"/>
+      <c r="OH1" s="3"/>
       <c r="OI1" s="5"/>
       <c r="OJ1" s="5"/>
-      <c r="OK1" s="3"/>
+      <c r="OK1" s="5"/>
       <c r="OL1" s="3"/>
-      <c r="OM1" s="5"/>
-      <c r="ON1" s="3"/>
+      <c r="OM1" s="3"/>
+      <c r="ON1" s="5"/>
       <c r="OO1" s="3"/>
       <c r="OP1" s="3"/>
-      <c r="OQ1" s="5"/>
-      <c r="OR1" s="3"/>
+      <c r="OQ1" s="3"/>
+      <c r="OR1" s="5"/>
       <c r="OS1" s="3"/>
-      <c r="OT1" s="5"/>
+      <c r="OT1" s="3"/>
       <c r="OU1" s="5"/>
       <c r="OV1" s="5"/>
-      <c r="OW1" s="3"/>
+      <c r="OW1" s="5"/>
       <c r="OX1" s="3"/>
       <c r="OY1" s="3"/>
-      <c r="OZ1" s="5"/>
+      <c r="OZ1" s="3"/>
       <c r="PA1" s="5"/>
-      <c r="PB1" s="3"/>
+      <c r="PB1" s="5"/>
       <c r="PC1" s="3"/>
       <c r="PD1" s="3"/>
       <c r="PE1" s="3"/>
       <c r="PF1" s="3"/>
       <c r="PG1" s="3"/>
-      <c r="PH1" s="5"/>
+      <c r="PH1" s="3"/>
       <c r="PI1" s="5"/>
-      <c r="PJ1" s="3"/>
+      <c r="PJ1" s="5"/>
       <c r="PK1" s="3"/>
-      <c r="PL1" s="5"/>
-      <c r="PM1" s="3"/>
+      <c r="PL1" s="3"/>
+      <c r="PM1" s="5"/>
       <c r="PN1" s="3"/>
-      <c r="PO1" s="5"/>
-      <c r="PP1" s="3"/>
+      <c r="PO1" s="3"/>
+      <c r="PP1" s="5"/>
       <c r="PQ1" s="3"/>
       <c r="PR1" s="3"/>
       <c r="PS1" s="3"/>
-      <c r="PT1" s="5"/>
+      <c r="PT1" s="3"/>
       <c r="PU1" s="5"/>
-      <c r="PV1" s="3"/>
+      <c r="PV1" s="5"/>
       <c r="PW1" s="3"/>
       <c r="PX1" s="3"/>
-      <c r="PY1" s="5"/>
+      <c r="PY1" s="3"/>
       <c r="PZ1" s="5"/>
       <c r="QA1" s="5"/>
       <c r="QB1" s="5"/>
-      <c r="QC1" s="3"/>
+      <c r="QC1" s="5"/>
       <c r="QD1" s="3"/>
       <c r="QE1" s="3"/>
       <c r="QF1" s="3"/>
-      <c r="QG1" s="5"/>
-      <c r="QH1" s="3"/>
+      <c r="QG1" s="3"/>
+      <c r="QH1" s="5"/>
       <c r="QI1" s="3"/>
       <c r="QJ1" s="3"/>
       <c r="QK1" s="3"/>
-      <c r="QL1" s="5"/>
+      <c r="QL1" s="3"/>
       <c r="QM1" s="5"/>
-      <c r="QN1" s="3"/>
+      <c r="QN1" s="5"/>
       <c r="QO1" s="3"/>
-      <c r="QP1" s="5"/>
+      <c r="QP1" s="3"/>
       <c r="QQ1" s="5"/>
       <c r="QR1" s="5"/>
       <c r="QS1" s="5"/>
-      <c r="QT1" s="3"/>
+      <c r="QT1" s="5"/>
       <c r="QU1" s="3"/>
       <c r="QV1" s="3"/>
       <c r="QW1" s="3"/>
       <c r="QX1" s="3"/>
-      <c r="QY1" s="5"/>
-      <c r="QZ1" s="3"/>
+      <c r="QY1" s="3"/>
+      <c r="QZ1" s="5"/>
       <c r="RA1" s="3"/>
       <c r="RB1" s="3"/>
-      <c r="RC1" s="5"/>
-      <c r="RD1" s="3"/>
+      <c r="RC1" s="3"/>
+      <c r="RD1" s="5"/>
       <c r="RE1" s="3"/>
       <c r="RF1" s="3"/>
-      <c r="RG1" s="5"/>
-      <c r="RH1" s="3"/>
+      <c r="RG1" s="3"/>
+      <c r="RH1" s="5"/>
       <c r="RI1" s="3"/>
-      <c r="RJ1" s="5"/>
-      <c r="RK1" s="3"/>
+      <c r="RJ1" s="3"/>
+      <c r="RK1" s="5"/>
       <c r="RL1" s="3"/>
       <c r="RM1" s="3"/>
       <c r="RN1" s="3"/>
       <c r="RO1" s="3"/>
       <c r="RP1" s="3"/>
-      <c r="RQ1" s="5"/>
-      <c r="RR1" s="3"/>
+      <c r="RQ1" s="3"/>
+      <c r="RR1" s="5"/>
       <c r="RS1" s="3"/>
       <c r="RT1" s="3"/>
       <c r="RU1" s="3"/>
@@ -2605,9 +2605,9 @@
       <c r="RZ1" s="3"/>
       <c r="SA1" s="3"/>
       <c r="SB1" s="3"/>
-      <c r="SC1" s="5"/>
+      <c r="SC1" s="3"/>
       <c r="SD1" s="5"/>
-      <c r="SE1" s="3"/>
+      <c r="SE1" s="5"/>
       <c r="SF1" s="3"/>
       <c r="SG1" s="3"/>
       <c r="SH1" s="3"/>
@@ -2617,7 +2617,7 @@
       <c r="SL1" s="3"/>
       <c r="SM1" s="3"/>
       <c r="SN1" s="3"/>
-      <c r="SO1" s="5"/>
+      <c r="SO1" s="3"/>
       <c r="SP1" s="5"/>
       <c r="SQ1" s="5"/>
       <c r="SR1" s="5"/>
@@ -2774,6 +2774,7 @@
       <c r="YM1" s="5"/>
       <c r="YN1" s="5"/>
       <c r="YO1" s="5"/>
+      <c r="YP1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
@@ -3159,645 +3160,647 @@
         <v>231</v>
       </c>
       <c r="DY2" s="9" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="DZ2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="EA2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="EA2" s="9" t="s">
+      <c r="EB2" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="EB2" s="9" t="s">
+      <c r="EC2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="EC2" s="9" t="s">
+      <c r="ED2" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="ED2" s="9" t="s">
+      <c r="EE2" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="EE2" s="9" t="s">
+      <c r="EF2" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="EF2" s="9" t="s">
+      <c r="EG2" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="EG2" s="9" t="s">
+      <c r="EH2" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="EH2" s="9" t="s">
+      <c r="EI2" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="EI2" s="9" t="s">
+      <c r="EJ2" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="EJ2" s="9" t="s">
+      <c r="EK2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="EK2" s="9" t="s">
+      <c r="EL2" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="EL2" s="9" t="s">
+      <c r="EM2" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="EM2" s="9" t="s">
+      <c r="EN2" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="EN2" s="9" t="s">
+      <c r="EO2" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="EO2" s="9" t="s">
+      <c r="EP2" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="EP2" s="9" t="s">
+      <c r="EQ2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="EQ2" s="9" t="s">
+      <c r="ER2" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="ER2" s="9" t="s">
+      <c r="ES2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="ES2" s="10" t="s">
+      <c r="ET2" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="ET2" s="9" t="s">
+      <c r="EU2" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="EU2" s="9" t="s">
+      <c r="EV2" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="EV2" s="9" t="s">
+      <c r="EW2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="EW2" s="9" t="s">
+      <c r="EX2" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="EX2" s="9" t="s">
+      <c r="EY2" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="EY2" s="9" t="s">
+      <c r="EZ2" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="EZ2" s="9" t="s">
+      <c r="FA2" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="FA2" s="9" t="s">
+      <c r="FB2" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="FB2" s="9" t="s">
+      <c r="FC2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="FC2" s="9" t="s">
+      <c r="FD2" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="FD2" s="9" t="s">
+      <c r="FE2" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="FE2" s="9" t="s">
+      <c r="FF2" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="FF2" s="9" t="s">
+      <c r="FG2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="FG2" s="9" t="s">
+      <c r="FH2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="FH2" s="9" t="s">
+      <c r="FI2" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="FI2" s="9" t="s">
+      <c r="FJ2" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="FJ2" s="9" t="s">
+      <c r="FK2" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="FK2" s="9" t="s">
+      <c r="FL2" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="FL2" s="9" t="s">
+      <c r="FM2" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="FM2" s="10" t="s">
+      <c r="FN2" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="FN2" s="9" t="s">
+      <c r="FO2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="FO2" s="9" t="s">
+      <c r="FP2" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="FP2" s="9" t="s">
+      <c r="FQ2" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="FQ2" s="9" t="s">
+      <c r="FR2" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="FR2" s="9" t="s">
+      <c r="FS2" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="FS2" s="9" t="s">
+      <c r="FT2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="FT2" s="9" t="s">
+      <c r="FU2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="FU2" s="9" t="s">
+      <c r="FV2" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="FV2" s="9" t="s">
+      <c r="FW2" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="FW2" s="9" t="s">
+      <c r="FX2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="FX2" s="9" t="s">
+      <c r="FY2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="FY2" s="9" t="s">
+      <c r="FZ2" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="FZ2" s="9" t="s">
+      <c r="GA2" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="GA2" s="9" t="s">
+      <c r="GB2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="GB2" s="9" t="s">
+      <c r="GC2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="GC2" s="9" t="s">
+      <c r="GD2" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="GD2" s="9" t="s">
+      <c r="GE2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="GE2" s="9" t="s">
+      <c r="GF2" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="GF2" s="9" t="s">
+      <c r="GG2" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="GG2" s="9" t="s">
+      <c r="GH2" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="GH2" s="10" t="s">
+      <c r="GI2" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="GI2" s="9" t="s">
+      <c r="GJ2" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="GJ2" s="9" t="s">
+      <c r="GK2" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="GK2" s="9" t="s">
+      <c r="GL2" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="GL2" s="9" t="s">
+      <c r="GM2" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="GM2" s="9" t="s">
+      <c r="GN2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="GN2" s="9" t="s">
+      <c r="GO2" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="GO2" s="9" t="s">
+      <c r="GP2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="GP2" s="9" t="s">
+      <c r="GQ2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="GQ2" s="9" t="s">
+      <c r="GR2" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="GR2" s="9" t="s">
+      <c r="GS2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="GS2" s="9" t="s">
+      <c r="GT2" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="GT2" s="9" t="s">
+      <c r="GU2" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="GU2" s="9" t="s">
+      <c r="GV2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="GV2" s="9" t="s">
+      <c r="GW2" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="GW2" s="9" t="s">
+      <c r="GX2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="GX2" s="9" t="s">
+      <c r="GY2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="GY2" s="9" t="s">
+      <c r="GZ2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="GZ2" s="9" t="s">
+      <c r="HA2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="HA2" s="9" t="s">
+      <c r="HB2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="HB2" s="11" t="s">
+      <c r="HC2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="HC2" s="9" t="s">
+      <c r="HD2" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="HD2" s="9" t="s">
+      <c r="HE2" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="HE2" s="9" t="s">
+      <c r="HF2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="HF2" s="9" t="s">
+      <c r="HG2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="HG2" s="9" t="s">
+      <c r="HH2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="HH2" s="9" t="s">
+      <c r="HI2" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="HI2" s="9" t="s">
+      <c r="HJ2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="HJ2" s="9" t="s">
+      <c r="HK2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="HK2" s="9" t="s">
+      <c r="HL2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="HL2" s="9" t="s">
+      <c r="HM2" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="HM2" s="9" t="s">
+      <c r="HN2" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="HN2" s="9" t="s">
+      <c r="HO2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="HO2" s="9" t="s">
+      <c r="HP2" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="HP2" s="9" t="s">
+      <c r="HQ2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="HQ2" s="9" t="s">
+      <c r="HR2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="HR2" s="9" t="s">
+      <c r="HS2" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="HS2" s="9" t="s">
+      <c r="HT2" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="HT2" s="9" t="s">
+      <c r="HU2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="HU2" s="9" t="s">
+      <c r="HV2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="HV2" s="9" t="s">
+      <c r="HW2" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="HW2" s="9" t="s">
+      <c r="HX2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="HX2" s="10" t="s">
+      <c r="HY2" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="HY2" s="9" t="s">
+      <c r="HZ2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="HZ2" s="9" t="s">
+      <c r="IA2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="IA2" s="9" t="s">
+      <c r="IB2" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="IB2" s="9" t="s">
+      <c r="IC2" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="IC2" s="9" t="s">
+      <c r="ID2" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="ID2" s="9" t="s">
+      <c r="IE2" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="IE2" s="9" t="s">
+      <c r="IF2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="IF2" s="9" t="s">
+      <c r="IG2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="IG2" s="9" t="s">
+      <c r="IH2" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="IH2" s="9" t="s">
+      <c r="II2" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="II2" s="9" t="s">
+      <c r="IJ2" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="IJ2" s="9" t="s">
+      <c r="IK2" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="IK2" s="9" t="s">
+      <c r="IL2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="IL2" s="9" t="s">
+      <c r="IM2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="IM2" s="9" t="s">
+      <c r="IN2" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="IN2" s="9" t="s">
+      <c r="IO2" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="IO2" s="9" t="s">
+      <c r="IP2" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="IP2" s="9" t="s">
+      <c r="IQ2" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="IQ2" s="9" t="s">
+      <c r="IR2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="IR2" s="9" t="s">
+      <c r="IS2" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="IS2" s="10" t="s">
+      <c r="IT2" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="IT2" s="9" t="s">
+      <c r="IU2" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="IU2" s="9" t="s">
+      <c r="IV2" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="IV2" s="9" t="s">
+      <c r="IW2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="IW2" s="9" t="s">
+      <c r="IX2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="IX2" s="9" t="s">
+      <c r="IY2" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="IY2" s="9" t="s">
+      <c r="IZ2" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="IZ2" s="9" t="s">
+      <c r="JA2" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="JA2" s="9" t="s">
+      <c r="JB2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="JB2" s="9" t="s">
+      <c r="JC2" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="JC2" s="9" t="s">
+      <c r="JD2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="JD2" s="9" t="s">
+      <c r="JE2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="JE2" s="9" t="s">
+      <c r="JF2" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="JF2" s="9" t="s">
+      <c r="JG2" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="JG2" s="9" t="s">
+      <c r="JH2" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="JH2" s="9" t="s">
+      <c r="JI2" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="JI2" s="9" t="s">
+      <c r="JJ2" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="JJ2" s="9" t="s">
+      <c r="JK2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="JK2" s="9" t="s">
+      <c r="JL2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="JL2" s="9" t="s">
+      <c r="JM2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="JM2" s="9" t="s">
+      <c r="JN2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="JN2" s="9" t="s">
+      <c r="JO2" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="JO2" s="9" t="s">
+      <c r="JP2" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="JP2" s="10" t="s">
+      <c r="JQ2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="JQ2" s="9" t="s">
+      <c r="JR2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="JR2" s="9" t="s">
+      <c r="JS2" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="JS2" s="9" t="s">
+      <c r="JT2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="JT2" s="9" t="s">
+      <c r="JU2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="JU2" s="9" t="s">
+      <c r="JV2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="JV2" s="9" t="s">
+      <c r="JW2" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="JW2" s="9" t="s">
+      <c r="JX2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="JX2" s="9" t="s">
+      <c r="JY2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="JY2" s="9" t="s">
+      <c r="JZ2" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="JZ2" s="9" t="s">
+      <c r="KA2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="KA2" s="9" t="s">
+      <c r="KB2" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="KB2" s="9" t="s">
+      <c r="KC2" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="KC2" s="9" t="s">
+      <c r="KD2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="KD2" s="9" t="s">
+      <c r="KE2" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="KE2" s="9" t="s">
+      <c r="KF2" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="KF2" s="9" t="s">
+      <c r="KG2" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="KG2" s="9" t="s">
+      <c r="KH2" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="KH2" s="9" t="s">
+      <c r="KI2" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="KI2" s="9" t="s">
+      <c r="KJ2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="KJ2" s="9" t="s">
+      <c r="KK2" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="KK2" s="9" t="s">
+      <c r="KL2" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="KL2" s="10" t="s">
+      <c r="KM2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="KM2" s="9" t="s">
+      <c r="KN2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="KN2" s="9" t="s">
+      <c r="KO2" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="KO2" s="9" t="s">
+      <c r="KP2" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="KP2" s="9" t="s">
+      <c r="KQ2" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="KQ2" s="9" t="s">
+      <c r="KR2" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="KR2" s="9" t="s">
+      <c r="KS2" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="KS2" s="9" t="s">
+      <c r="KT2" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="KT2" s="9" t="s">
+      <c r="KU2" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="KU2" s="9" t="s">
+      <c r="KV2" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="KV2" s="9" t="s">
+      <c r="KW2" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="KW2" s="9" t="s">
+      <c r="KX2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="KX2" s="9" t="s">
+      <c r="KY2" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="KY2" s="9" t="s">
+      <c r="KZ2" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="KZ2" s="9" t="s">
+      <c r="LA2" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="LA2" s="9" t="s">
+      <c r="LB2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="LB2" s="9" t="s">
+      <c r="LC2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="LC2" s="9" t="s">
+      <c r="LD2" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="LD2" s="9" t="s">
+      <c r="LE2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="LE2" s="9" t="s">
+      <c r="LF2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="LF2" s="10" t="s">
+      <c r="LG2" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="LG2" s="9" t="s">
+      <c r="LH2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="LH2" s="9" t="s">
+      <c r="LI2" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="LI2" s="9" t="s">
+      <c r="LJ2" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="LJ2" s="9" t="s">
+      <c r="LK2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="LK2" s="9" t="s">
+      <c r="LL2" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="LL2" s="9" t="s">
+      <c r="LM2" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="LM2" s="9" t="s">
+      <c r="LN2" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="LN2" s="9" t="s">
+      <c r="LO2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="LO2" s="9" t="s">
+      <c r="LP2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="LP2" s="9" t="s">
+      <c r="LQ2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="LQ2" s="9" t="s">
+      <c r="LR2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="LR2" s="9" t="s">
+      <c r="LS2" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="LS2" s="9" t="s">
+      <c r="LT2" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="LT2" s="9" t="s">
+      <c r="LU2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="LU2" s="9" t="s">
+      <c r="LV2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="LV2" s="9" t="s">
+      <c r="LW2" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="LW2" s="9" t="s">
+      <c r="LX2" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="LX2" s="9" t="s">
+      <c r="LY2" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="LY2" s="9" t="s">
+      <c r="LZ2" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="LZ2" s="9" t="s">
+      <c r="MA2" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="MA2" s="9" t="s">
+      <c r="MB2" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="MB2" s="9" t="s">
+      <c r="MC2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="MC2" s="9" t="s">
+      <c r="MD2" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="MD2" s="9"/>
       <c r="ME2" s="9"/>
       <c r="MF2" s="9"/>
       <c r="MG2" s="9"/>
@@ -3828,6 +3831,7 @@
       <c r="NF2" s="9"/>
       <c r="NG2" s="9"/>
       <c r="NH2" s="9"/>
+      <c r="NI2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
@@ -4274,10 +4278,10 @@
       <c r="ER3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="ES3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET3" s="13" t="n">
+      <c r="ES3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="EU3" s="13" t="n">
@@ -4334,10 +4338,10 @@
       <c r="FL3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="FM3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" s="13" t="n">
+      <c r="FM3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="FO3" s="13" t="n">
@@ -4397,10 +4401,10 @@
       <c r="GG3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="GH3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" s="13" t="n">
+      <c r="GH3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="GJ3" s="13" t="n">
@@ -4457,10 +4461,10 @@
       <c r="HA3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HB3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" s="13" t="n">
+      <c r="HB3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="HD3" s="13" t="n">
@@ -4523,10 +4527,10 @@
       <c r="HW3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HX3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY3" s="13" t="n">
+      <c r="HX3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="HZ3" s="13" t="n">
@@ -4586,10 +4590,10 @@
       <c r="IR3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="IS3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT3" s="13" t="n">
+      <c r="IS3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="IU3" s="13" t="n">
@@ -4655,10 +4659,10 @@
       <c r="JO3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="JP3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ3" s="13" t="n">
+      <c r="JP3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="JR3" s="13" t="n">
@@ -4721,10 +4725,10 @@
       <c r="KK3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="KL3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM3" s="13" t="n">
+      <c r="KL3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="KN3" s="13" t="n">
@@ -4781,10 +4785,10 @@
       <c r="LE3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="LF3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG3" s="13" t="n">
+      <c r="LF3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="LH3" s="13" t="n">
@@ -4853,7 +4857,9 @@
       <c r="MC3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="MD3" s="13"/>
+      <c r="MD3" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="ME3" s="13"/>
       <c r="MF3" s="13"/>
       <c r="MG3" s="13"/>
@@ -4875,7 +4881,7 @@
       <c r="MW3" s="13"/>
       <c r="MX3" s="13"/>
       <c r="MY3" s="13"/>
-      <c r="MZ3" s="16"/>
+      <c r="MZ3" s="13"/>
       <c r="NA3" s="16"/>
       <c r="NB3" s="16"/>
       <c r="NC3" s="16"/>
@@ -4883,6 +4889,7 @@
       <c r="NE3" s="16"/>
       <c r="NF3" s="16"/>
       <c r="NG3" s="16"/>
+      <c r="NH3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
@@ -5329,10 +5336,10 @@
       <c r="ER4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="ES4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET4" s="13" t="n">
+      <c r="ES4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET4" s="14" t="n">
         <v>0</v>
       </c>
       <c r="EU4" s="13" t="n">
@@ -5389,10 +5396,10 @@
       <c r="FL4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="FM4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN4" s="13" t="n">
+      <c r="FM4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" s="14" t="n">
         <v>0</v>
       </c>
       <c r="FO4" s="13" t="n">
@@ -5452,10 +5459,10 @@
       <c r="GG4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="GH4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI4" s="13" t="n">
+      <c r="GH4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI4" s="14" t="n">
         <v>0</v>
       </c>
       <c r="GJ4" s="13" t="n">
@@ -5512,10 +5519,10 @@
       <c r="HA4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HB4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC4" s="13" t="n">
+      <c r="HB4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="HD4" s="13" t="n">
@@ -5578,10 +5585,10 @@
       <c r="HW4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HX4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY4" s="13" t="n">
+      <c r="HX4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY4" s="14" t="n">
         <v>0</v>
       </c>
       <c r="HZ4" s="13" t="n">
@@ -5641,10 +5648,10 @@
       <c r="IR4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="IS4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT4" s="13" t="n">
+      <c r="IS4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT4" s="14" t="n">
         <v>0</v>
       </c>
       <c r="IU4" s="13" t="n">
@@ -5710,10 +5717,10 @@
       <c r="JO4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="JP4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ4" s="13" t="n">
+      <c r="JP4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ4" s="14" t="n">
         <v>0</v>
       </c>
       <c r="JR4" s="13" t="n">
@@ -5776,10 +5783,10 @@
       <c r="KK4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="KL4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM4" s="13" t="n">
+      <c r="KL4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM4" s="14" t="n">
         <v>0</v>
       </c>
       <c r="KN4" s="13" t="n">
@@ -5836,10 +5843,10 @@
       <c r="LE4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="LF4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG4" s="13" t="n">
+      <c r="LF4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG4" s="14" t="n">
         <v>0</v>
       </c>
       <c r="LH4" s="13" t="n">
@@ -5908,7 +5915,9 @@
       <c r="MC4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="MD4" s="13"/>
+      <c r="MD4" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="ME4" s="13"/>
       <c r="MF4" s="13"/>
       <c r="MG4" s="13"/>
@@ -5930,7 +5939,7 @@
       <c r="MW4" s="13"/>
       <c r="MX4" s="13"/>
       <c r="MY4" s="13"/>
-      <c r="MZ4" s="16"/>
+      <c r="MZ4" s="13"/>
       <c r="NA4" s="16"/>
       <c r="NB4" s="16"/>
       <c r="NC4" s="16"/>
@@ -5938,6 +5947,7 @@
       <c r="NE4" s="16"/>
       <c r="NF4" s="16"/>
       <c r="NG4" s="16"/>
+      <c r="NH4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
@@ -6384,10 +6394,10 @@
       <c r="ER5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="ES5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET5" s="13" t="n">
+      <c r="ES5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="EU5" s="13" t="n">
@@ -6444,10 +6454,10 @@
       <c r="FL5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="FM5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" s="13" t="n">
+      <c r="FM5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="FO5" s="13" t="n">
@@ -6507,10 +6517,10 @@
       <c r="GG5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="GH5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI5" s="13" t="n">
+      <c r="GH5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="GJ5" s="13" t="n">
@@ -6567,10 +6577,10 @@
       <c r="HA5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HB5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC5" s="13" t="n">
+      <c r="HB5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC5" s="15" t="n">
         <v>0</v>
       </c>
       <c r="HD5" s="13" t="n">
@@ -6633,10 +6643,10 @@
       <c r="HW5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HX5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY5" s="13" t="n">
+      <c r="HX5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="HZ5" s="13" t="n">
@@ -6696,10 +6706,10 @@
       <c r="IR5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="IS5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT5" s="13" t="n">
+      <c r="IS5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="IU5" s="13" t="n">
@@ -6765,10 +6775,10 @@
       <c r="JO5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="JP5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ5" s="13" t="n">
+      <c r="JP5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="JR5" s="13" t="n">
@@ -6831,10 +6841,10 @@
       <c r="KK5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="KL5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM5" s="13" t="n">
+      <c r="KL5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="KN5" s="13" t="n">
@@ -6891,10 +6901,10 @@
       <c r="LE5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="LF5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG5" s="13" t="n">
+      <c r="LF5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="LH5" s="13" t="n">
@@ -6963,7 +6973,9 @@
       <c r="MC5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="MD5" s="13"/>
+      <c r="MD5" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="ME5" s="13"/>
       <c r="MF5" s="13"/>
       <c r="MG5" s="13"/>
@@ -6985,7 +6997,7 @@
       <c r="MW5" s="13"/>
       <c r="MX5" s="13"/>
       <c r="MY5" s="13"/>
-      <c r="MZ5" s="16"/>
+      <c r="MZ5" s="13"/>
       <c r="NA5" s="16"/>
       <c r="NB5" s="16"/>
       <c r="NC5" s="16"/>
@@ -6993,6 +7005,7 @@
       <c r="NE5" s="16"/>
       <c r="NF5" s="16"/>
       <c r="NG5" s="16"/>
+      <c r="NH5" s="16"/>
     </row>
     <row r="6" s="23" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
@@ -7439,10 +7452,10 @@
       <c r="ER6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="ES6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET6" s="19" t="n">
+      <c r="ES6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET6" s="20" t="n">
         <v>0</v>
       </c>
       <c r="EU6" s="19" t="n">
@@ -7499,10 +7512,10 @@
       <c r="FL6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="FM6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN6" s="19" t="n">
+      <c r="FM6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" s="20" t="n">
         <v>0</v>
       </c>
       <c r="FO6" s="19" t="n">
@@ -7562,10 +7575,10 @@
       <c r="GG6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="GH6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI6" s="19" t="n">
+      <c r="GH6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI6" s="20" t="n">
         <v>0</v>
       </c>
       <c r="GJ6" s="19" t="n">
@@ -7622,10 +7635,10 @@
       <c r="HA6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="HB6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC6" s="19" t="n">
+      <c r="HB6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC6" s="21" t="n">
         <v>0</v>
       </c>
       <c r="HD6" s="19" t="n">
@@ -7688,10 +7701,10 @@
       <c r="HW6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="HX6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY6" s="19" t="n">
+      <c r="HX6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY6" s="20" t="n">
         <v>0</v>
       </c>
       <c r="HZ6" s="19" t="n">
@@ -7751,10 +7764,10 @@
       <c r="IR6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="IS6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT6" s="19" t="n">
+      <c r="IS6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT6" s="20" t="n">
         <v>0</v>
       </c>
       <c r="IU6" s="19" t="n">
@@ -7820,10 +7833,10 @@
       <c r="JO6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="JP6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ6" s="19" t="n">
+      <c r="JP6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ6" s="20" t="n">
         <v>0</v>
       </c>
       <c r="JR6" s="19" t="n">
@@ -7886,10 +7899,10 @@
       <c r="KK6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="KL6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM6" s="19" t="n">
+      <c r="KL6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM6" s="20" t="n">
         <v>0</v>
       </c>
       <c r="KN6" s="19" t="n">
@@ -7946,10 +7959,10 @@
       <c r="LE6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="LF6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG6" s="19" t="n">
+      <c r="LF6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG6" s="20" t="n">
         <v>0</v>
       </c>
       <c r="LH6" s="19" t="n">
@@ -8018,7 +8031,9 @@
       <c r="MC6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="MD6" s="19"/>
+      <c r="MD6" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="ME6" s="19"/>
       <c r="MF6" s="19"/>
       <c r="MG6" s="19"/>
@@ -8040,7 +8055,7 @@
       <c r="MW6" s="19"/>
       <c r="MX6" s="19"/>
       <c r="MY6" s="19"/>
-      <c r="MZ6" s="22"/>
+      <c r="MZ6" s="19"/>
       <c r="NA6" s="22"/>
       <c r="NB6" s="22"/>
       <c r="NC6" s="22"/>
@@ -8048,6 +8063,8 @@
       <c r="NE6" s="22"/>
       <c r="NF6" s="22"/>
       <c r="NG6" s="22"/>
+      <c r="NH6" s="22"/>
+      <c r="YQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
@@ -8494,10 +8511,10 @@
       <c r="ER7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="ES7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET7" s="13" t="n">
+      <c r="ES7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="EU7" s="13" t="n">
@@ -8554,10 +8571,10 @@
       <c r="FL7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="FM7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" s="13" t="n">
+      <c r="FM7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="FO7" s="13" t="n">
@@ -8617,10 +8634,10 @@
       <c r="GG7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="GH7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI7" s="13" t="n">
+      <c r="GH7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="GJ7" s="13" t="n">
@@ -8677,10 +8694,10 @@
       <c r="HA7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HB7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC7" s="13" t="n">
+      <c r="HB7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="HD7" s="13" t="n">
@@ -8743,10 +8760,10 @@
       <c r="HW7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HX7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY7" s="13" t="n">
+      <c r="HX7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="HZ7" s="13" t="n">
@@ -8806,10 +8823,10 @@
       <c r="IR7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="IS7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT7" s="13" t="n">
+      <c r="IS7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="IU7" s="13" t="n">
@@ -8875,10 +8892,10 @@
       <c r="JO7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="JP7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ7" s="13" t="n">
+      <c r="JP7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="JR7" s="13" t="n">
@@ -8941,10 +8958,10 @@
       <c r="KK7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="KL7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM7" s="13" t="n">
+      <c r="KL7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="KN7" s="13" t="n">
@@ -9001,10 +9018,10 @@
       <c r="LE7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="LF7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG7" s="13" t="n">
+      <c r="LF7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="LH7" s="13" t="n">
@@ -9073,7 +9090,9 @@
       <c r="MC7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="MD7" s="13"/>
+      <c r="MD7" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="ME7" s="13"/>
       <c r="MF7" s="13"/>
       <c r="MG7" s="13"/>
@@ -9095,7 +9114,7 @@
       <c r="MW7" s="13"/>
       <c r="MX7" s="13"/>
       <c r="MY7" s="13"/>
-      <c r="MZ7" s="16"/>
+      <c r="MZ7" s="13"/>
       <c r="NA7" s="16"/>
       <c r="NB7" s="16"/>
       <c r="NC7" s="16"/>
@@ -9103,6 +9122,7 @@
       <c r="NE7" s="16"/>
       <c r="NF7" s="16"/>
       <c r="NG7" s="16"/>
+      <c r="NH7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
@@ -9549,10 +9569,10 @@
       <c r="ER8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="ES8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET8" s="13" t="n">
+      <c r="ES8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="EU8" s="13" t="n">
@@ -9609,10 +9629,10 @@
       <c r="FL8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="FM8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" s="13" t="n">
+      <c r="FM8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="FO8" s="13" t="n">
@@ -9672,10 +9692,10 @@
       <c r="GG8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="GH8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI8" s="13" t="n">
+      <c r="GH8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="GJ8" s="13" t="n">
@@ -9732,10 +9752,10 @@
       <c r="HA8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HB8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC8" s="13" t="n">
+      <c r="HB8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC8" s="15" t="n">
         <v>0</v>
       </c>
       <c r="HD8" s="13" t="n">
@@ -9798,10 +9818,10 @@
       <c r="HW8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HX8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY8" s="13" t="n">
+      <c r="HX8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="HZ8" s="13" t="n">
@@ -9861,10 +9881,10 @@
       <c r="IR8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="IS8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT8" s="13" t="n">
+      <c r="IS8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="IU8" s="13" t="n">
@@ -9930,10 +9950,10 @@
       <c r="JO8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="JP8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ8" s="13" t="n">
+      <c r="JP8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="JR8" s="13" t="n">
@@ -9996,10 +10016,10 @@
       <c r="KK8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="KL8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM8" s="13" t="n">
+      <c r="KL8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="KN8" s="13" t="n">
@@ -10056,10 +10076,10 @@
       <c r="LE8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="LF8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG8" s="13" t="n">
+      <c r="LF8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="LH8" s="13" t="n">
@@ -10128,7 +10148,9 @@
       <c r="MC8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="MD8" s="13"/>
+      <c r="MD8" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="ME8" s="13"/>
       <c r="MF8" s="13"/>
       <c r="MG8" s="13"/>
@@ -10150,7 +10172,7 @@
       <c r="MW8" s="13"/>
       <c r="MX8" s="13"/>
       <c r="MY8" s="13"/>
-      <c r="MZ8" s="16"/>
+      <c r="MZ8" s="13"/>
       <c r="NA8" s="16"/>
       <c r="NB8" s="16"/>
       <c r="NC8" s="16"/>
@@ -10158,6 +10180,7 @@
       <c r="NE8" s="16"/>
       <c r="NF8" s="16"/>
       <c r="NG8" s="16"/>
+      <c r="NH8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
@@ -10604,10 +10627,10 @@
       <c r="ER9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="ES9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET9" s="13" t="n">
+      <c r="ES9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="EU9" s="13" t="n">
@@ -10664,10 +10687,10 @@
       <c r="FL9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="FM9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" s="13" t="n">
+      <c r="FM9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="FO9" s="13" t="n">
@@ -10727,10 +10750,10 @@
       <c r="GG9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="GH9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI9" s="13" t="n">
+      <c r="GH9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="GJ9" s="13" t="n">
@@ -10787,10 +10810,10 @@
       <c r="HA9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HB9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC9" s="13" t="n">
+      <c r="HB9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="HD9" s="13" t="n">
@@ -10853,10 +10876,10 @@
       <c r="HW9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HX9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY9" s="13" t="n">
+      <c r="HX9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="HZ9" s="13" t="n">
@@ -10916,10 +10939,10 @@
       <c r="IR9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="IS9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT9" s="13" t="n">
+      <c r="IS9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="IU9" s="13" t="n">
@@ -10985,10 +11008,10 @@
       <c r="JO9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="JP9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ9" s="13" t="n">
+      <c r="JP9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="JR9" s="13" t="n">
@@ -11051,10 +11074,10 @@
       <c r="KK9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="KL9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM9" s="13" t="n">
+      <c r="KL9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="KN9" s="13" t="n">
@@ -11111,10 +11134,10 @@
       <c r="LE9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="LF9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG9" s="13" t="n">
+      <c r="LF9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="LH9" s="13" t="n">
@@ -11183,7 +11206,9 @@
       <c r="MC9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="MD9" s="13"/>
+      <c r="MD9" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="ME9" s="13"/>
       <c r="MF9" s="13"/>
       <c r="MG9" s="13"/>
@@ -11205,7 +11230,7 @@
       <c r="MW9" s="13"/>
       <c r="MX9" s="13"/>
       <c r="MY9" s="13"/>
-      <c r="MZ9" s="16"/>
+      <c r="MZ9" s="13"/>
       <c r="NA9" s="16"/>
       <c r="NB9" s="16"/>
       <c r="NC9" s="16"/>
@@ -11213,6 +11238,7 @@
       <c r="NE9" s="16"/>
       <c r="NF9" s="16"/>
       <c r="NG9" s="16"/>
+      <c r="NH9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
@@ -11659,10 +11685,10 @@
       <c r="ER10" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="ES10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET10" s="13" t="n">
+      <c r="ES10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="EU10" s="13" t="n">
@@ -11719,10 +11745,10 @@
       <c r="FL10" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="FM10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" s="13" t="n">
+      <c r="FM10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="FO10" s="13" t="n">
@@ -11782,10 +11808,10 @@
       <c r="GG10" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="GH10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI10" s="13" t="n">
+      <c r="GH10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="GJ10" s="13" t="n">
@@ -11842,10 +11868,10 @@
       <c r="HA10" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HB10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC10" s="13" t="n">
+      <c r="HB10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC10" s="15" t="n">
         <v>0</v>
       </c>
       <c r="HD10" s="13" t="n">
@@ -11908,10 +11934,10 @@
       <c r="HW10" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HX10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY10" s="13" t="n">
+      <c r="HX10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="HZ10" s="13" t="n">
@@ -11971,10 +11997,10 @@
       <c r="IR10" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="IS10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT10" s="13" t="n">
+      <c r="IS10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="IU10" s="13" t="n">
@@ -12040,10 +12066,10 @@
       <c r="JO10" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="JP10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ10" s="13" t="n">
+      <c r="JP10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="JR10" s="13" t="n">
@@ -12106,10 +12132,10 @@
       <c r="KK10" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="KL10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM10" s="13" t="n">
+      <c r="KL10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="KN10" s="13" t="n">
@@ -12166,10 +12192,10 @@
       <c r="LE10" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="LF10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG10" s="13" t="n">
+      <c r="LF10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="LH10" s="13" t="n">
@@ -12238,7 +12264,9 @@
       <c r="MC10" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="MD10" s="13"/>
+      <c r="MD10" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="ME10" s="13"/>
       <c r="MF10" s="13"/>
       <c r="MG10" s="13"/>
@@ -12260,7 +12288,7 @@
       <c r="MW10" s="13"/>
       <c r="MX10" s="13"/>
       <c r="MY10" s="13"/>
-      <c r="MZ10" s="16"/>
+      <c r="MZ10" s="13"/>
       <c r="NA10" s="16"/>
       <c r="NB10" s="16"/>
       <c r="NC10" s="16"/>
@@ -12268,6 +12296,7 @@
       <c r="NE10" s="16"/>
       <c r="NF10" s="16"/>
       <c r="NG10" s="16"/>
+      <c r="NH10" s="16"/>
     </row>
     <row r="11" s="29" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
@@ -12714,10 +12743,10 @@
       <c r="ER11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="ES11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET11" s="25" t="n">
+      <c r="ES11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="26" t="n">
         <v>0</v>
       </c>
       <c r="EU11" s="25" t="n">
@@ -12774,10 +12803,10 @@
       <c r="FL11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="FM11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" s="25" t="n">
+      <c r="FM11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="26" t="n">
         <v>0</v>
       </c>
       <c r="FO11" s="25" t="n">
@@ -12837,10 +12866,10 @@
       <c r="GG11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="GH11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI11" s="25" t="n">
+      <c r="GH11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI11" s="26" t="n">
         <v>0</v>
       </c>
       <c r="GJ11" s="25" t="n">
@@ -12897,10 +12926,10 @@
       <c r="HA11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="HB11" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC11" s="25" t="n">
+      <c r="HB11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC11" s="27" t="n">
         <v>0</v>
       </c>
       <c r="HD11" s="25" t="n">
@@ -12963,10 +12992,10 @@
       <c r="HW11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="HX11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY11" s="25" t="n">
+      <c r="HX11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY11" s="26" t="n">
         <v>0</v>
       </c>
       <c r="HZ11" s="25" t="n">
@@ -13026,10 +13055,10 @@
       <c r="IR11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="IS11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT11" s="25" t="n">
+      <c r="IS11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT11" s="26" t="n">
         <v>0</v>
       </c>
       <c r="IU11" s="25" t="n">
@@ -13095,10 +13124,10 @@
       <c r="JO11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="JP11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ11" s="25" t="n">
+      <c r="JP11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ11" s="26" t="n">
         <v>0</v>
       </c>
       <c r="JR11" s="25" t="n">
@@ -13161,10 +13190,10 @@
       <c r="KK11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="KL11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM11" s="25" t="n">
+      <c r="KL11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM11" s="26" t="n">
         <v>0</v>
       </c>
       <c r="KN11" s="25" t="n">
@@ -13221,10 +13250,10 @@
       <c r="LE11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="LF11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG11" s="25" t="n">
+      <c r="LF11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG11" s="26" t="n">
         <v>0</v>
       </c>
       <c r="LH11" s="25" t="n">
@@ -13293,7 +13322,9 @@
       <c r="MC11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="MD11" s="25"/>
+      <c r="MD11" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="ME11" s="25"/>
       <c r="MF11" s="25"/>
       <c r="MG11" s="25"/>
@@ -13315,7 +13346,7 @@
       <c r="MW11" s="25"/>
       <c r="MX11" s="25"/>
       <c r="MY11" s="25"/>
-      <c r="MZ11" s="28"/>
+      <c r="MZ11" s="25"/>
       <c r="NA11" s="28"/>
       <c r="NB11" s="28"/>
       <c r="NC11" s="28"/>
@@ -13323,6 +13354,8 @@
       <c r="NE11" s="28"/>
       <c r="NF11" s="28"/>
       <c r="NG11" s="28"/>
+      <c r="NH11" s="28"/>
+      <c r="YQ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
@@ -13769,10 +13802,10 @@
       <c r="ER12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="ES12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET12" s="13" t="n">
+      <c r="ES12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="EU12" s="13" t="n">
@@ -13829,10 +13862,10 @@
       <c r="FL12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="FM12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN12" s="13" t="n">
+      <c r="FM12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="FO12" s="13" t="n">
@@ -13892,10 +13925,10 @@
       <c r="GG12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="GH12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI12" s="13" t="n">
+      <c r="GH12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="GJ12" s="13" t="n">
@@ -13952,10 +13985,10 @@
       <c r="HA12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HB12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC12" s="13" t="n">
+      <c r="HB12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC12" s="15" t="n">
         <v>0</v>
       </c>
       <c r="HD12" s="13" t="n">
@@ -14018,10 +14051,10 @@
       <c r="HW12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HX12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY12" s="13" t="n">
+      <c r="HX12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="HZ12" s="13" t="n">
@@ -14081,10 +14114,10 @@
       <c r="IR12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="IS12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT12" s="13" t="n">
+      <c r="IS12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="IU12" s="13" t="n">
@@ -14150,10 +14183,10 @@
       <c r="JO12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="JP12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ12" s="13" t="n">
+      <c r="JP12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="JR12" s="13" t="n">
@@ -14216,10 +14249,10 @@
       <c r="KK12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="KL12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM12" s="13" t="n">
+      <c r="KL12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="KN12" s="13" t="n">
@@ -14276,10 +14309,10 @@
       <c r="LE12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="LF12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG12" s="13" t="n">
+      <c r="LF12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="LH12" s="13" t="n">
@@ -14348,7 +14381,9 @@
       <c r="MC12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="MD12" s="13"/>
+      <c r="MD12" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="ME12" s="13"/>
       <c r="MF12" s="13"/>
       <c r="MG12" s="13"/>
@@ -14370,7 +14405,7 @@
       <c r="MW12" s="13"/>
       <c r="MX12" s="13"/>
       <c r="MY12" s="13"/>
-      <c r="MZ12" s="16"/>
+      <c r="MZ12" s="13"/>
       <c r="NA12" s="16"/>
       <c r="NB12" s="16"/>
       <c r="NC12" s="16"/>
@@ -14378,6 +14413,7 @@
       <c r="NE12" s="16"/>
       <c r="NF12" s="16"/>
       <c r="NG12" s="16"/>
+      <c r="NH12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
@@ -14824,10 +14860,10 @@
       <c r="ER13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="ES13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET13" s="13" t="n">
+      <c r="ES13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="EU13" s="13" t="n">
@@ -14884,10 +14920,10 @@
       <c r="FL13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="FM13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN13" s="13" t="n">
+      <c r="FM13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="FO13" s="13" t="n">
@@ -14947,10 +14983,10 @@
       <c r="GG13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="GH13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI13" s="13" t="n">
+      <c r="GH13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="GJ13" s="13" t="n">
@@ -15007,10 +15043,10 @@
       <c r="HA13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HB13" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC13" s="13" t="n">
+      <c r="HB13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC13" s="15" t="n">
         <v>0</v>
       </c>
       <c r="HD13" s="13" t="n">
@@ -15073,10 +15109,10 @@
       <c r="HW13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HX13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY13" s="13" t="n">
+      <c r="HX13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="HZ13" s="13" t="n">
@@ -15136,10 +15172,10 @@
       <c r="IR13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="IS13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT13" s="13" t="n">
+      <c r="IS13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="IU13" s="13" t="n">
@@ -15205,10 +15241,10 @@
       <c r="JO13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="JP13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ13" s="13" t="n">
+      <c r="JP13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="JR13" s="13" t="n">
@@ -15271,10 +15307,10 @@
       <c r="KK13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="KL13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM13" s="13" t="n">
+      <c r="KL13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="KN13" s="13" t="n">
@@ -15331,10 +15367,10 @@
       <c r="LE13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="LF13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG13" s="13" t="n">
+      <c r="LF13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="LH13" s="13" t="n">
@@ -15403,7 +15439,9 @@
       <c r="MC13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="MD13" s="13"/>
+      <c r="MD13" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="ME13" s="13"/>
       <c r="MF13" s="13"/>
       <c r="MG13" s="13"/>
@@ -15425,7 +15463,7 @@
       <c r="MW13" s="13"/>
       <c r="MX13" s="13"/>
       <c r="MY13" s="13"/>
-      <c r="MZ13" s="16"/>
+      <c r="MZ13" s="13"/>
       <c r="NA13" s="16"/>
       <c r="NB13" s="16"/>
       <c r="NC13" s="16"/>
@@ -15433,6 +15471,7 @@
       <c r="NE13" s="16"/>
       <c r="NF13" s="16"/>
       <c r="NG13" s="16"/>
+      <c r="NH13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
@@ -15879,10 +15918,10 @@
       <c r="ER14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="ES14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET14" s="13" t="n">
+      <c r="ES14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="EU14" s="13" t="n">
@@ -15939,10 +15978,10 @@
       <c r="FL14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="FM14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN14" s="13" t="n">
+      <c r="FM14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="FO14" s="13" t="n">
@@ -16002,10 +16041,10 @@
       <c r="GG14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="GH14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI14" s="13" t="n">
+      <c r="GH14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="GJ14" s="13" t="n">
@@ -16062,10 +16101,10 @@
       <c r="HA14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HB14" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC14" s="13" t="n">
+      <c r="HB14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC14" s="15" t="n">
         <v>0</v>
       </c>
       <c r="HD14" s="13" t="n">
@@ -16128,10 +16167,10 @@
       <c r="HW14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="HX14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY14" s="13" t="n">
+      <c r="HX14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="HZ14" s="13" t="n">
@@ -16191,10 +16230,10 @@
       <c r="IR14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="IS14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT14" s="13" t="n">
+      <c r="IS14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="IU14" s="13" t="n">
@@ -16260,10 +16299,10 @@
       <c r="JO14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="JP14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ14" s="13" t="n">
+      <c r="JP14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="JR14" s="13" t="n">
@@ -16326,10 +16365,10 @@
       <c r="KK14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="KL14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM14" s="13" t="n">
+      <c r="KL14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="KN14" s="13" t="n">
@@ -16386,10 +16425,10 @@
       <c r="LE14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="LF14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG14" s="13" t="n">
+      <c r="LF14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="LH14" s="13" t="n">
@@ -16458,7 +16497,9 @@
       <c r="MC14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="MD14" s="13"/>
+      <c r="MD14" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="ME14" s="13"/>
       <c r="MF14" s="13"/>
       <c r="MG14" s="13"/>
@@ -16480,7 +16521,7 @@
       <c r="MW14" s="13"/>
       <c r="MX14" s="13"/>
       <c r="MY14" s="13"/>
-      <c r="MZ14" s="16"/>
+      <c r="MZ14" s="13"/>
       <c r="NA14" s="16"/>
       <c r="NB14" s="16"/>
       <c r="NC14" s="16"/>
@@ -16488,6 +16529,7 @@
       <c r="NE14" s="16"/>
       <c r="NF14" s="16"/>
       <c r="NG14" s="16"/>
+      <c r="NH14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
@@ -16640,8 +16682,8 @@
       <c r="EP15" s="16"/>
       <c r="EQ15" s="16"/>
       <c r="ER15" s="16"/>
-      <c r="ES15" s="30"/>
-      <c r="ET15" s="16"/>
+      <c r="ES15" s="16"/>
+      <c r="ET15" s="30"/>
       <c r="EU15" s="16"/>
       <c r="EV15" s="16"/>
       <c r="EW15" s="16"/>
@@ -16660,8 +16702,8 @@
       <c r="FJ15" s="16"/>
       <c r="FK15" s="16"/>
       <c r="FL15" s="16"/>
-      <c r="FM15" s="30"/>
-      <c r="FN15" s="16"/>
+      <c r="FM15" s="16"/>
+      <c r="FN15" s="30"/>
       <c r="FO15" s="16"/>
       <c r="FP15" s="16"/>
       <c r="FQ15" s="16"/>
@@ -16681,8 +16723,8 @@
       <c r="GE15" s="16"/>
       <c r="GF15" s="16"/>
       <c r="GG15" s="16"/>
-      <c r="GH15" s="30"/>
-      <c r="GI15" s="16"/>
+      <c r="GH15" s="16"/>
+      <c r="GI15" s="30"/>
       <c r="GJ15" s="16"/>
       <c r="GK15" s="16"/>
       <c r="GL15" s="16"/>
@@ -16701,8 +16743,8 @@
       <c r="GY15" s="16"/>
       <c r="GZ15" s="16"/>
       <c r="HA15" s="16"/>
-      <c r="HB15" s="31"/>
-      <c r="HC15" s="16"/>
+      <c r="HB15" s="16"/>
+      <c r="HC15" s="31"/>
       <c r="HD15" s="16"/>
       <c r="HE15" s="16"/>
       <c r="HF15" s="16"/>
@@ -16723,8 +16765,8 @@
       <c r="HU15" s="16"/>
       <c r="HV15" s="16"/>
       <c r="HW15" s="16"/>
-      <c r="HX15" s="30"/>
-      <c r="HY15" s="16"/>
+      <c r="HX15" s="16"/>
+      <c r="HY15" s="30"/>
       <c r="HZ15" s="16"/>
       <c r="IA15" s="16"/>
       <c r="IB15" s="16"/>
@@ -16744,8 +16786,8 @@
       <c r="IP15" s="16"/>
       <c r="IQ15" s="16"/>
       <c r="IR15" s="16"/>
-      <c r="IS15" s="30"/>
-      <c r="IT15" s="16"/>
+      <c r="IS15" s="16"/>
+      <c r="IT15" s="30"/>
       <c r="IU15" s="16"/>
       <c r="IV15" s="16"/>
       <c r="IW15" s="16"/>
@@ -16767,8 +16809,8 @@
       <c r="JM15" s="16"/>
       <c r="JN15" s="16"/>
       <c r="JO15" s="16"/>
-      <c r="JP15" s="30"/>
-      <c r="JQ15" s="16"/>
+      <c r="JP15" s="16"/>
+      <c r="JQ15" s="30"/>
       <c r="JR15" s="16"/>
       <c r="JS15" s="16"/>
       <c r="JT15" s="16"/>
@@ -16789,8 +16831,8 @@
       <c r="KI15" s="16"/>
       <c r="KJ15" s="16"/>
       <c r="KK15" s="16"/>
-      <c r="KL15" s="30"/>
-      <c r="KM15" s="16"/>
+      <c r="KL15" s="16"/>
+      <c r="KM15" s="30"/>
       <c r="KN15" s="16"/>
       <c r="KO15" s="16"/>
       <c r="KP15" s="16"/>
@@ -16809,8 +16851,8 @@
       <c r="LC15" s="16"/>
       <c r="LD15" s="16"/>
       <c r="LE15" s="16"/>
-      <c r="LF15" s="30"/>
-      <c r="LG15" s="16"/>
+      <c r="LF15" s="16"/>
+      <c r="LG15" s="30"/>
       <c r="LH15" s="16"/>
       <c r="LI15" s="16"/>
       <c r="LJ15" s="16"/>
@@ -16863,6 +16905,7 @@
       <c r="NE15" s="16"/>
       <c r="NF15" s="16"/>
       <c r="NG15" s="16"/>
+      <c r="NH15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
@@ -17015,8 +17058,8 @@
       <c r="EP16" s="16"/>
       <c r="EQ16" s="16"/>
       <c r="ER16" s="16"/>
-      <c r="ES16" s="30"/>
-      <c r="ET16" s="16"/>
+      <c r="ES16" s="16"/>
+      <c r="ET16" s="30"/>
       <c r="EU16" s="16"/>
       <c r="EV16" s="16"/>
       <c r="EW16" s="16"/>
@@ -17035,8 +17078,8 @@
       <c r="FJ16" s="16"/>
       <c r="FK16" s="16"/>
       <c r="FL16" s="16"/>
-      <c r="FM16" s="30"/>
-      <c r="FN16" s="16"/>
+      <c r="FM16" s="16"/>
+      <c r="FN16" s="30"/>
       <c r="FO16" s="16"/>
       <c r="FP16" s="16"/>
       <c r="FQ16" s="16"/>
@@ -17056,8 +17099,8 @@
       <c r="GE16" s="16"/>
       <c r="GF16" s="16"/>
       <c r="GG16" s="16"/>
-      <c r="GH16" s="30"/>
-      <c r="GI16" s="16"/>
+      <c r="GH16" s="16"/>
+      <c r="GI16" s="30"/>
       <c r="GJ16" s="16"/>
       <c r="GK16" s="16"/>
       <c r="GL16" s="16"/>
@@ -17076,8 +17119,8 @@
       <c r="GY16" s="16"/>
       <c r="GZ16" s="16"/>
       <c r="HA16" s="16"/>
-      <c r="HB16" s="31"/>
-      <c r="HC16" s="16"/>
+      <c r="HB16" s="16"/>
+      <c r="HC16" s="31"/>
       <c r="HD16" s="16"/>
       <c r="HE16" s="16"/>
       <c r="HF16" s="16"/>
@@ -17098,8 +17141,8 @@
       <c r="HU16" s="16"/>
       <c r="HV16" s="16"/>
       <c r="HW16" s="16"/>
-      <c r="HX16" s="30"/>
-      <c r="HY16" s="16"/>
+      <c r="HX16" s="16"/>
+      <c r="HY16" s="30"/>
       <c r="HZ16" s="16"/>
       <c r="IA16" s="16"/>
       <c r="IB16" s="16"/>
@@ -17119,8 +17162,8 @@
       <c r="IP16" s="16"/>
       <c r="IQ16" s="16"/>
       <c r="IR16" s="16"/>
-      <c r="IS16" s="30"/>
-      <c r="IT16" s="16"/>
+      <c r="IS16" s="16"/>
+      <c r="IT16" s="30"/>
       <c r="IU16" s="16"/>
       <c r="IV16" s="16"/>
       <c r="IW16" s="16"/>
@@ -17142,8 +17185,8 @@
       <c r="JM16" s="16"/>
       <c r="JN16" s="16"/>
       <c r="JO16" s="16"/>
-      <c r="JP16" s="30"/>
-      <c r="JQ16" s="16"/>
+      <c r="JP16" s="16"/>
+      <c r="JQ16" s="30"/>
       <c r="JR16" s="16"/>
       <c r="JS16" s="16"/>
       <c r="JT16" s="16"/>
@@ -17164,8 +17207,8 @@
       <c r="KI16" s="16"/>
       <c r="KJ16" s="16"/>
       <c r="KK16" s="16"/>
-      <c r="KL16" s="30"/>
-      <c r="KM16" s="16"/>
+      <c r="KL16" s="16"/>
+      <c r="KM16" s="30"/>
       <c r="KN16" s="16"/>
       <c r="KO16" s="16"/>
       <c r="KP16" s="16"/>
@@ -17184,8 +17227,8 @@
       <c r="LC16" s="16"/>
       <c r="LD16" s="16"/>
       <c r="LE16" s="16"/>
-      <c r="LF16" s="30"/>
-      <c r="LG16" s="16"/>
+      <c r="LF16" s="16"/>
+      <c r="LG16" s="30"/>
       <c r="LH16" s="16"/>
       <c r="LI16" s="16"/>
       <c r="LJ16" s="16"/>
@@ -17238,6 +17281,7 @@
       <c r="NE16" s="16"/>
       <c r="NF16" s="16"/>
       <c r="NG16" s="16"/>
+      <c r="NH16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32"/>
@@ -20201,7 +20245,7 @@
       <c r="A1003" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="91">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -20236,64 +20280,65 @@
     <mergeCell ref="DP1:DQ1"/>
     <mergeCell ref="DT1:DU1"/>
     <mergeCell ref="DW1:DX1"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="EE1:EF1"/>
-    <mergeCell ref="EG1:EI1"/>
-    <mergeCell ref="EK1:EL1"/>
-    <mergeCell ref="EM1:EO1"/>
-    <mergeCell ref="EQ1:ES1"/>
-    <mergeCell ref="ET1:EU1"/>
-    <mergeCell ref="EV1:EW1"/>
-    <mergeCell ref="EX1:EY1"/>
-    <mergeCell ref="EZ1:FA1"/>
-    <mergeCell ref="FB1:FC1"/>
-    <mergeCell ref="FD1:FE1"/>
-    <mergeCell ref="FH1:FK1"/>
-    <mergeCell ref="FL1:FM1"/>
-    <mergeCell ref="FQ1:FR1"/>
-    <mergeCell ref="FU1:FV1"/>
-    <mergeCell ref="FY1:FZ1"/>
-    <mergeCell ref="GB1:GC1"/>
-    <mergeCell ref="GE1:GH1"/>
-    <mergeCell ref="GI1:GK1"/>
-    <mergeCell ref="GL1:GN1"/>
-    <mergeCell ref="GQ1:GS1"/>
-    <mergeCell ref="GT1:GV1"/>
-    <mergeCell ref="HC1:HD1"/>
-    <mergeCell ref="HG1:HH1"/>
-    <mergeCell ref="HL1:HM1"/>
-    <mergeCell ref="HO1:HP1"/>
-    <mergeCell ref="HR1:HS1"/>
-    <mergeCell ref="HV1:HX1"/>
-    <mergeCell ref="HZ1:IA1"/>
-    <mergeCell ref="IB1:ID1"/>
-    <mergeCell ref="IG1:IJ1"/>
-    <mergeCell ref="IM1:IN1"/>
-    <mergeCell ref="IO1:IP1"/>
-    <mergeCell ref="IR1:IS1"/>
-    <mergeCell ref="IT1:IU1"/>
-    <mergeCell ref="IX1:IZ1"/>
-    <mergeCell ref="JA1:JB1"/>
-    <mergeCell ref="JE1:JF1"/>
-    <mergeCell ref="JG1:JI1"/>
-    <mergeCell ref="JN1:JO1"/>
-    <mergeCell ref="JU1:JV1"/>
-    <mergeCell ref="JW1:JY1"/>
-    <mergeCell ref="KA1:KB1"/>
-    <mergeCell ref="KD1:KF1"/>
-    <mergeCell ref="KG1:KH1"/>
-    <mergeCell ref="KJ1:KK1"/>
-    <mergeCell ref="KM1:KN1"/>
-    <mergeCell ref="KO1:KQ1"/>
-    <mergeCell ref="KS1:KV1"/>
-    <mergeCell ref="KX1:KZ1"/>
-    <mergeCell ref="LB1:LC1"/>
-    <mergeCell ref="LG1:LI1"/>
-    <mergeCell ref="LK1:LM1"/>
-    <mergeCell ref="LR1:LS1"/>
-    <mergeCell ref="LU1:LY1"/>
+    <mergeCell ref="DY1:DZ1"/>
+    <mergeCell ref="EA1:EE1"/>
+    <mergeCell ref="EF1:EG1"/>
+    <mergeCell ref="EH1:EJ1"/>
+    <mergeCell ref="EL1:EM1"/>
+    <mergeCell ref="EN1:EP1"/>
+    <mergeCell ref="ER1:ET1"/>
+    <mergeCell ref="EU1:EV1"/>
+    <mergeCell ref="EW1:EX1"/>
+    <mergeCell ref="EY1:EZ1"/>
+    <mergeCell ref="FA1:FB1"/>
+    <mergeCell ref="FC1:FD1"/>
+    <mergeCell ref="FE1:FF1"/>
+    <mergeCell ref="FI1:FL1"/>
+    <mergeCell ref="FM1:FN1"/>
+    <mergeCell ref="FR1:FS1"/>
+    <mergeCell ref="FV1:FW1"/>
+    <mergeCell ref="FZ1:GA1"/>
+    <mergeCell ref="GC1:GD1"/>
+    <mergeCell ref="GF1:GI1"/>
+    <mergeCell ref="GJ1:GL1"/>
+    <mergeCell ref="GM1:GO1"/>
+    <mergeCell ref="GR1:GT1"/>
+    <mergeCell ref="GU1:GW1"/>
+    <mergeCell ref="HD1:HE1"/>
+    <mergeCell ref="HH1:HI1"/>
+    <mergeCell ref="HM1:HN1"/>
+    <mergeCell ref="HP1:HQ1"/>
+    <mergeCell ref="HS1:HT1"/>
+    <mergeCell ref="HW1:HY1"/>
+    <mergeCell ref="IA1:IB1"/>
+    <mergeCell ref="IC1:IE1"/>
+    <mergeCell ref="IH1:IK1"/>
+    <mergeCell ref="IN1:IO1"/>
+    <mergeCell ref="IP1:IQ1"/>
+    <mergeCell ref="IS1:IT1"/>
+    <mergeCell ref="IU1:IV1"/>
+    <mergeCell ref="IY1:JA1"/>
+    <mergeCell ref="JB1:JC1"/>
+    <mergeCell ref="JF1:JG1"/>
+    <mergeCell ref="JH1:JJ1"/>
+    <mergeCell ref="JO1:JP1"/>
+    <mergeCell ref="JV1:JW1"/>
+    <mergeCell ref="JX1:JZ1"/>
+    <mergeCell ref="KB1:KC1"/>
+    <mergeCell ref="KE1:KG1"/>
+    <mergeCell ref="KH1:KI1"/>
+    <mergeCell ref="KK1:KL1"/>
+    <mergeCell ref="KN1:KO1"/>
+    <mergeCell ref="KP1:KR1"/>
+    <mergeCell ref="KT1:KW1"/>
+    <mergeCell ref="KY1:LA1"/>
+    <mergeCell ref="LC1:LD1"/>
+    <mergeCell ref="LH1:LJ1"/>
+    <mergeCell ref="LL1:LN1"/>
+    <mergeCell ref="LS1:LT1"/>
+    <mergeCell ref="LV1:LZ1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:MC14">
+  <conditionalFormatting sqref="B3:MD14">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
